--- a/biology/Botanique/Cannelier_de_Ceylan/Cannelier_de_Ceylan.xlsx
+++ b/biology/Botanique/Cannelier_de_Ceylan/Cannelier_de_Ceylan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinnamomum verum
 Le cannelier ou cannelier de Ceylan (Cinnamomum verum) est une espèce d'arbres de la famille des Lauraceae, originaire du Sri Lanka. 
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannelier de Ceylan est un arbre de 10 à 15 mètres de hauteur.
 Ses feuilles persistantes sont d'un vert brillant, de forme oblongue et mesurent de 7 à 18 cm de long.
@@ -549,7 +563,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Laurus cinnamomum L.
 Cinnamomum zeylanicum Blume</t>
@@ -580,25 +596,167 @@
           <t>La cannelle de Ceylan</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannelier de Ceylan est cultivé notamment pour la cannelle de Ceylan. Elle est utilisée comme simple épice et comme huile essentielle. On lui attribue de nombreuses vertus thérapeutiques et médicinales.
-Utilisation
-La cannelle de Ceylan provient de l’écorce du cannelier. Une fois séchée, elle va donner des bâtons de cannelle utilisés directement comme épices ou broyés pour être transformés en poudre.
-Elle peut être utilisée comme poudre, bâton dans les plats, huiles dans des crèmes, ou même ajoutée sur le dentifrice[1]. 
-Principes actifs
-Les principes actifs contenus dans cette plante (et qui lui apportent de nombreuses vertus médicinales) sont la cinnamaldéhyde, la cannaldéhyde, des polyphénols notamment en tanin.
-La cinnamaldéhyde est ce qui constitue 60% à 80% de l’huile essentielle de la cannelle de Ceylan et qui est utilisée pour traiter les maux intestinaux et d’estomac[1].
-La cannaldéhyde est ce qui donne un goût sucré à la cannelle de Ceylan lorsqu'on l'intègre dans des plats[1].
-Les polyphénols sont des composés anti inflammatoires[1] contenus principalement dans la poudre, ils permettent à l'organisme de lutter contre toutes les inflammations mais aussi les infections.
-Et le tanin qui compose la poudre renforce la propriété anti infectieuse et permet de lutter contre la diarrhée[1].
-Principales propriétés
-La cannelle de Ceylan a des propriétés antiseptiques, antivirales et antibactériennes. Par conséquent, l’une de ses principales fonctions est la fonction anti infectieuse[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cannelier_de_Ceylan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cannelier_de_Ceylan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>La cannelle de Ceylan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cannelle de Ceylan provient de l’écorce du cannelier. Une fois séchée, elle va donner des bâtons de cannelle utilisés directement comme épices ou broyés pour être transformés en poudre.
+Elle peut être utilisée comme poudre, bâton dans les plats, huiles dans des crèmes, ou même ajoutée sur le dentifrice. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cannelier_de_Ceylan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cannelier_de_Ceylan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>La cannelle de Ceylan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principes actifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principes actifs contenus dans cette plante (et qui lui apportent de nombreuses vertus médicinales) sont la cinnamaldéhyde, la cannaldéhyde, des polyphénols notamment en tanin.
+La cinnamaldéhyde est ce qui constitue 60% à 80% de l’huile essentielle de la cannelle de Ceylan et qui est utilisée pour traiter les maux intestinaux et d’estomac.
+La cannaldéhyde est ce qui donne un goût sucré à la cannelle de Ceylan lorsqu'on l'intègre dans des plats.
+Les polyphénols sont des composés anti inflammatoires contenus principalement dans la poudre, ils permettent à l'organisme de lutter contre toutes les inflammations mais aussi les infections.
+Et le tanin qui compose la poudre renforce la propriété anti infectieuse et permet de lutter contre la diarrhée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cannelier_de_Ceylan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cannelier_de_Ceylan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>La cannelle de Ceylan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Principales propriétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cannelle de Ceylan a des propriétés antiseptiques, antivirales et antibactériennes. Par conséquent, l’une de ses principales fonctions est la fonction anti infectieuse.
 Cette cannelle a des propriétés médicinales sur l’intestin. Elle a pour effet de stimuler les glandes corticosurrénales, cette épice pouvant donc être utilisée comme anti diarrhéique.
-La cannelle de Ceylan peut être utilisée en cas de maladies respiratoires comme la bronchite, l’asthme, le rhume, la grippe [2].
-Ses autres fonctions sont antiparasitaires (elle peut donc aider à lutter contre les vers et les parasites liés à des séjours à l’étranger) et anti fatigue (en effet elle possède des vertus qui stimulent l’organisme[2]).
-Contre indications
-Cependant, l'huile essentielle de cannelle de Ceylan possède des contre-indications, notamment pour les enfants de moins de 7 ans et les femmes enceintes[2]. De plus, cette plante est dermocaustique, elle peut donc avoir des effets sur la peau lorsqu’elle est utilisée à trop forte dose et à long terme[2]. Aussi, il ne faut pas ingérer à trop forte dose et sur une longue durée l’huile essentielle qui peut causer des brûlures d’estomac[1].
+La cannelle de Ceylan peut être utilisée en cas de maladies respiratoires comme la bronchite, l’asthme, le rhume, la grippe .
+Ses autres fonctions sont antiparasitaires (elle peut donc aider à lutter contre les vers et les parasites liés à des séjours à l’étranger) et anti fatigue (en effet elle possède des vertus qui stimulent l’organisme).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cannelier_de_Ceylan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cannelier_de_Ceylan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>La cannelle de Ceylan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Contre indications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cependant, l'huile essentielle de cannelle de Ceylan possède des contre-indications, notamment pour les enfants de moins de 7 ans et les femmes enceintes. De plus, cette plante est dermocaustique, elle peut donc avoir des effets sur la peau lorsqu’elle est utilisée à trop forte dose et à long terme. Aussi, il ne faut pas ingérer à trop forte dose et sur une longue durée l’huile essentielle qui peut causer des brûlures d’estomac.
 </t>
         </is>
       </c>
